--- a/film.xlsx
+++ b/film.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,12 +532,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['боевик', 'комедия', 'приключения', 'триллер']</t>
+          <t>боевик, комедия, приключения, триллер</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -588,12 +588,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['биография', 'детектив', 'драма', 'криминал']</t>
+          <t>биография, детектив, драма, криминал</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6.103</t>
+          <t>6.102</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -644,17 +644,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['триллер']</t>
+          <t>триллер</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Джессика собирает свои нехитрые пожитки и на автомобиле с прицепом отправляется на новое место жительства. Недавно в её жизни произошла трагедия, от которой о</t>
+          <t>Джессика собирает свои нехитрые пожитки и на автомобиле с прицепом отправляется на новое место жительства. Недавно в её жизни произошла трагедия, от которой она ещё не оправилась, но вскоре грустные мысли придётся отложить, так как женщина становится объектом преследования неприятного незнакомца.</t>
         </is>
       </c>
     </row>
@@ -700,12 +700,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['детектив', 'драма', 'триллер']</t>
+          <t>детектив, драма, триллер</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6.043</t>
+          <t>6.042</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -756,12 +756,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['драма', 'комедия', 'криминал']</t>
+          <t>драма, комедия, криминал</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -812,12 +812,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['детектив', 'драма', 'триллер']</t>
+          <t>детектив, драма, триллер</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['Бельгия', 'Польша', 'Франция']</t>
+          <t>Бельгия, Польша, Франция</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['драма', 'криминал', 'триллер']</t>
+          <t>драма, криминал, триллер</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -924,12 +924,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['драма', 'криминал']</t>
+          <t>драма, криминал</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -980,17 +980,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['комедия', 'триллер']</t>
+          <t>комедия, триллер</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Компания модной молодёжи собирается в шикарном загородном особняке богатенького приятеля. В разгар весёлой вечеринки ребята решают поиграть в игру «Тела, тела, тела»: тянут жребий, и тот, у кого окажется бумажка с крестиком, назначается «убийцей», который должен втихаря «убивать» остальных. Но в процессе выясняется, что кто-то по-настоящему прикончил хозяина дома. Нарастает истерика и каскад взаимных подозрений.</t>
+          <t>Компания модной молодёжи собирается в шикарном загородном особняке богатенького приятеля. В раз</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['биография', 'детектив', 'драма', 'криминал', 'триллер']</t>
+          <t>биография, детектив, драма, криминал, триллер</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['Великобритания', 'Италия', 'Китай', 'США']</t>
+          <t>Великобритания, Италия, Китай, США</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['драма']</t>
+          <t>драма</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1148,12 +1148,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['драма', 'криминал', 'триллер']</t>
+          <t>драма, криминал, триллер</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1205,12 +1205,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['боевик', 'криминал', 'триллер']</t>
+          <t>боевик, криминал, триллер</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>['Франция']</t>
+          <t>Франция</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6.201</t>
+          <t>6.202</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['комедия', 'фантастика']</t>
+          <t>комедия, фантастика</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>['Бельгия', 'Франция']</t>
+          <t>Бельгия, Франция</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1318,12 +1318,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['драма', 'триллер']</t>
+          <t>драма, триллер</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>['Бельгия', 'Франция', 'Швейцария']</t>
+          <t>Бельгия, Франция, Швейцария</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1374,12 +1374,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['детектив', 'криминал', 'триллер']</t>
+          <t>детектив, криминал, триллер</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>['Франция']</t>
+          <t>Франция</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>7.094</t>
+          <t>7.093</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['боевик', 'детектив', 'драма', 'криминал']</t>
+          <t>боевик, детектив, драма, криминал</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['драма', 'криминал', 'триллер']</t>
+          <t>драма, криминал, триллер</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>['Великобритания', 'Германия', 'Испания', 'США']</t>
+          <t>Великобритания, Германия, Испания, США</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1544,12 +1544,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['биография', 'драма']</t>
+          <t>биография, драма</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1600,12 +1600,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['биография', 'драма', 'история', 'мелодрама']</t>
+          <t>биография, драма, история, мелодрама</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>['Великобритания', 'США']</t>
+          <t>Великобритания, США</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['биография', 'драма', 'история', 'спорт', 'триллер']</t>
+          <t>биография, драма, история, спорт, триллер</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['драма', 'мелодрама', 'мюзикл']</t>
+          <t>драма, мелодрама, мюзикл</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>['Великобритания', 'США']</t>
+          <t>Великобритания, США</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1768,12 +1768,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['военный', 'детектив', 'драма', 'мелодрама']</t>
+          <t>военный, детектив, драма, мелодрама</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>['Великобритания', 'США', 'Франция']</t>
+          <t>Великобритания, США, Франция</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1824,12 +1824,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['биография', 'драма', 'спорт']</t>
+          <t>биография, драма, спорт</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1880,12 +1880,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['биография', 'боевик', 'вестерн', 'военный', 'драма', 'история']</t>
+          <t>биография, боевик, вестерн, военный, драма, история</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1936,12 +1936,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['драма']</t>
+          <t>драма</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -1993,12 +1993,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['биография', 'драма']</t>
+          <t>биография, драма</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>6.294</t>
+          <t>6.295</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2049,12 +2049,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['детектив', 'криминал', 'триллер']</t>
+          <t>детектив, криминал, триллер</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>['Канада']</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2105,12 +2105,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['биография', 'драма']</t>
+          <t>биография, драма</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>6.011</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2161,12 +2161,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['биография', 'драма', 'спорт']</t>
+          <t>биография, драма, спорт</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>['Италия', 'США']</t>
+          <t>Италия, США</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2217,12 +2217,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['драма', 'криминал', 'триллер']</t>
+          <t>драма, криминал, триллер</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>['Дания']</t>
+          <t>Дания</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2273,12 +2273,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['детектив', 'драма', 'комедия']</t>
+          <t>детектив, драма, комедия</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2329,12 +2329,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['драма', 'криминал', 'триллер']</t>
+          <t>драма, криминал, триллер</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2385,12 +2385,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['боевик', 'криминал', 'триллер']</t>
+          <t>боевик, криминал, триллер</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>['Дания']</t>
+          <t>Дания</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2433,12 +2433,12 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['боевик', 'драма', 'триллер']</t>
+          <t>боевик, драма, триллер</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>['Великобритания', 'США']</t>
+          <t>Великобритания, США</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2485,12 +2485,12 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['фантастика']</t>
+          <t>фантастика</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2506,7 +2506,7 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>7.317</t>
+          <t>7.318</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2533,12 +2533,12 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['детектив', 'драма', 'криминал', 'триллер']</t>
+          <t>детектив, драма, криминал, триллер</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>['Австралия']</t>
+          <t>Австралия</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2554,7 +2554,7 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>6.666</t>
+          <t>6.664</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2585,12 +2585,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['детектив', 'драма', 'криминал', 'триллер']</t>
+          <t>детектив, драма, криминал, триллер</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>['Великобритания']</t>
+          <t>Великобритания</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['биография', 'драма', 'криминал', 'триллер']</t>
+          <t>биография, драма, криминал, триллер</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2697,12 +2697,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['детектив', 'драма', 'криминал', 'мелодрама', 'триллер']</t>
+          <t>детектив, драма, криминал, мелодрама, триллер</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>8.049</t>
+          <t>8.051</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2753,12 +2753,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['драма', 'комедия', 'триллер']</t>
+          <t>драма, комедия, триллер</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>['Бельгия', 'Великобритания', 'Ирландия', 'США']</t>
+          <t>Бельгия, Великобритания, Ирландия, США</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['детектив', 'драма', 'криминал', 'триллер']</t>
+          <t>детектив, драма, криминал, триллер</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2830,7 +2830,7 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>6.876</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2857,12 +2857,12 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['детектив', 'документальный', 'криминал']</t>
+          <t>детектив, документальный, криминал</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2913,12 +2913,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['детектив', 'драма', 'криминал', 'триллер']</t>
+          <t>детектив, драма, криминал, триллер</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>7.566</t>
+          <t>7.567</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2969,12 +2969,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['биография', 'детектив', 'драма', 'криминал', 'триллер']</t>
+          <t>биография, детектив, драма, криминал, триллер</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>['Великобритания']</t>
+          <t>Великобритания</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['детектив', 'драма', 'криминал', 'триллер']</t>
+          <t>детектив, драма, криминал, триллер</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>['Германия', 'Дания', 'Норвегия', 'Швеция']</t>
+          <t>Германия, Дания, Норвегия, Швеция</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3078,12 +3078,12 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['драма', 'криминал', 'триллер']</t>
+          <t>драма, криминал, триллер</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>['Дания', 'Швеция']</t>
+          <t>Дания, Швеция</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3130,12 +3130,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['биография', 'детектив', 'драма', 'криминал']</t>
+          <t>биография, детектив, драма, криминал</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>['Великобритания']</t>
+          <t>Великобритания</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3151,7 +3151,7 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>7.166</t>
+          <t>7.167</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3182,12 +3182,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['драма']</t>
+          <t>драма</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3238,12 +3238,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['боевик', 'драма', 'криминал', 'триллер']</t>
+          <t>боевик, драма, криминал, триллер</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>['Германия']</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3259,7 +3259,7 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>7.806</t>
+          <t>7.804</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3286,12 +3286,12 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['драма', 'криминал', 'триллер']</t>
+          <t>драма, криминал, триллер</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>['Испания']</t>
+          <t>Испания</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3342,12 +3342,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['драма', 'криминал', 'триллер']</t>
+          <t>драма, криминал, триллер</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3363,7 +3363,7 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>6.692</t>
+          <t>6.693</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3390,12 +3390,12 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['биография', 'детектив', 'драма', 'история', 'криминал', 'триллер']</t>
+          <t>биография, детектив, драма, история, криминал, триллер</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3446,12 +3446,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['драма', 'криминал', 'триллер']</t>
+          <t>драма, криминал, триллер</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3467,7 +3467,7 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>6.96</t>
+          <t>6.959</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3494,12 +3494,12 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['биография', 'драма']</t>
+          <t>биография, драма</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3542,12 +3542,12 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['детектив', 'драма', 'криминал', 'триллер']</t>
+          <t>детектив, драма, криминал, триллер</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>['Великобритания']</t>
+          <t>Великобритания</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3598,12 +3598,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['комедия', 'мелодрама']</t>
+          <t>комедия, мелодрама</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3654,12 +3654,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['биография', 'драма', 'история']</t>
+          <t>биография, драма, история</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>['Великобритания']</t>
+          <t>Великобритания</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3710,12 +3710,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['драма', 'комедия']</t>
+          <t>драма, комедия</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>7.643</t>
+          <t>7.644</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3766,12 +3766,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['драма', 'комедия']</t>
+          <t>драма, комедия</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>7.656</t>
+          <t>7.658</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3818,12 +3818,12 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['драма', 'криминал', 'триллер']</t>
+          <t>драма, криминал, триллер</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>['США']</t>
+          <t>США</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -3836,17 +3836,169 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Сериал</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>6.729</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Чёрный снег</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Black Snow</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>00:52</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>детектив, драма, криминал</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Австралия</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>В 1994 году была убита семнадцатилетняя Изабель Бейкер. Преступление потрясло небольшой городок Эшфорд и опустошило австралийскую общину жителей островов Южного моря, где жила Изабель. Дело так и не было раскрыто, убийца так и не найден. В 2019 году открытие капсулы времени раскрывает секрет, который выводит детектива Джеймса Кормака на след убийцы.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Фильм</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>7.181</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Переводчик</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>The Covenant</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>2023</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>02:03</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>боевик, триллер</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Великобритания, Испания</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Джон Кинли не помнит, как выжил, попав в окружение в Афганистане, но понимает, что обязан жизнью местному переводчику по имени Ахмед. Именно ему удалось отбить раненного Кинли и на себе протащить через опасную территорию. Теперь чувство вины не дает Джону покоя, и он решает вернуться за Ахмедом и его семьей. На обоих объявлена охота, действовать приходится в одиночку, но он понимает, что не может бросить своего товарища в беде.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Фильм</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>6.876</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Королевская игра</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Schachnovelle</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>01:50</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>драма, триллер</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Австрия, Германия</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Вена, 1938 год. Юрист Йозеф Барток вместе с женой собирается покинуть оккупированную нацистами Австрию, но его арестовывает гестапо. От Бартока требуют выдать конфиденциальную информацию о клиентах, а после отказа помещают в одиночное заключение и полностью лишают связи с внешним миром. Но однажды Йозефу удается украсть у своих тюремщиков книгу о шахматах. Она становится для него одновременно и спасением, и опасным наваждением…</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
